--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/White-chinned Petrel_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/White-chinned Petrel_Prince Edward Islands.xlsx
@@ -2902,13 +2902,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43309E2C-44D7-4C75-AECE-A77595B1C55F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C947C5-EEAC-42DF-A939-3045C848E9D3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8287B20-5836-482C-A49F-CF817406291C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE1166B-2AD1-43AC-96A2-26AF0714BBCD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64136AA7-52C1-454C-8608-BC0CA31835AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C2EC4AD-6E4D-4070-A2D1-0886C8240B99}"/>
 </file>